--- a/Assets/StreamingAssets/Excel/test.xlsx
+++ b/Assets/StreamingAssets/Excel/test.xlsx
@@ -58,8 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,19 +94,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
